--- a/data/annotations/new_annotation_structure_out/iteration_10/iteration_10_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_10/iteration_10_mistral-large-2411-2.xlsx
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2464,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3253,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
